--- a/output/recognized_digits_data.xlsx
+++ b/output/recognized_digits_data.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>958</v>
+        <v>567</v>
       </c>
       <c r="B2">
-        <v>2179</v>
+        <v>615</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>579</v>
+        <v>799</v>
       </c>
       <c r="B3">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>668</v>
+        <v>159</v>
       </c>
       <c r="B4">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -432,156 +432,68 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>357</v>
+        <v>595</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="B6">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>222</v>
+        <v>1169</v>
       </c>
       <c r="B7">
-        <v>326</v>
+        <v>581</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1795</v>
+        <v>834</v>
       </c>
       <c r="B8">
-        <v>1413</v>
+        <v>614</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1374</v>
+        <v>567</v>
       </c>
       <c r="B9">
-        <v>1430</v>
+        <v>615</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1278</v>
+        <v>566</v>
       </c>
       <c r="B10">
-        <v>1445</v>
+        <v>806</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>874</v>
-      </c>
-      <c r="B11">
-        <v>1466</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>920</v>
-      </c>
-      <c r="B12">
-        <v>1475</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>1349</v>
-      </c>
-      <c r="B13">
-        <v>1758</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>1826</v>
-      </c>
-      <c r="B14">
-        <v>1778</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>938</v>
-      </c>
-      <c r="B15">
-        <v>1794</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>1406</v>
-      </c>
-      <c r="B16">
-        <v>2143</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>1912</v>
-      </c>
-      <c r="B17">
-        <v>2147</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>958</v>
-      </c>
-      <c r="B18">
-        <v>2179</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
